--- a/data/trans_bre/EXP_TABACO-Clase-trans_bre.xlsx
+++ b/data/trans_bre/EXP_TABACO-Clase-trans_bre.xlsx
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,34</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>53,28%</t>
+          <t>40,49%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 9,13</t>
+          <t>-1,41; 8,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 7,65</t>
+          <t>-2,57; 7,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,17 +683,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,08; -0,81</t>
+          <t>-10,87; -0,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 140,37</t>
+          <t>-14,1; 139,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,66; 115,16</t>
+          <t>-23,41; 100,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-43,44; -3,97</t>
+          <t>-42,75; -0,01</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>21,01%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 7,71</t>
+          <t>-5,61; 5,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 8,71</t>
+          <t>-3,57; 8,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 4,8</t>
+          <t>-10,09; 4,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,5; 108,75</t>
+          <t>-43,47; 83,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-28,38; 123,54</t>
+          <t>-29,15; 118,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-31,71; 20,71</t>
+          <t>-31,33; 19,79</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,6</t>
+          <t>-4,62</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-17,15%</t>
+          <t>-24,86%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 4,18</t>
+          <t>-12,11; 3,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-80,22; 0,53</t>
+          <t>-80,74; 0,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -883,17 +883,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,99; 12,54</t>
+          <t>-11,83; 13,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-50,91; 30,03</t>
+          <t>-60,59; 24,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-96,9; -2,82</t>
+          <t>-96,89; 2,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-38,64; 66,18</t>
+          <t>-41,58; 70,46</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-10,65%</t>
+          <t>-4,67%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -968,12 +968,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 3,18</t>
+          <t>-6,35; 4,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 3,39</t>
+          <t>-14,9; 3,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,17 +983,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 12,06</t>
+          <t>-4,11; 12,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,7; 19,73</t>
+          <t>-30,68; 31,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-72,27; 23,07</t>
+          <t>-72,23; 25,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 51,88</t>
+          <t>-13,15; 56,29</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,3</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-20,09%</t>
+          <t>-2,18%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1068,12 +1068,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 3,09</t>
+          <t>-6,95; 5,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 7,44</t>
+          <t>-10,53; 7,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1083,17 +1083,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-28,89; -3,26</t>
+          <t>-30,54; -4,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-49,79; 25,56</t>
+          <t>-39,13; 58,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-50,02; 56,38</t>
+          <t>-47,15; 61,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-66,73; -11,05</t>
+          <t>-67,99; -18,08</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-5,93</t>
+          <t>-2,87</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-43,8%</t>
+          <t>-23,48%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,7; 0,46</t>
+          <t>-12,57; 4,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 5,44</t>
+          <t>-16,78; 5,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1183,17 +1183,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-35,62; -2,0</t>
+          <t>-34,77; -1,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-71,68; 8,63</t>
+          <t>-66,67; 67,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-60,0; 46,7</t>
+          <t>-56,48; 50,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-67,87; -3,58</t>
+          <t>-64,67; -5,33</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-7,74%</t>
+          <t>-7,32%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1268,12 +1268,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 1,0</t>
+          <t>-3,53; 1,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-39,2; 1,17</t>
+          <t>-39,5; 1,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1283,17 +1283,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,81; -0,11</t>
+          <t>-7,19; -0,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-20,93; 8,08</t>
+          <t>-22,81; 11,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-76,5; 8,95</t>
+          <t>-77,61; 9,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-23,74; -0,34</t>
+          <t>-25,49; -1,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/EXP_TABACO-Clase-trans_bre.xlsx
+++ b/data/trans_bre/EXP_TABACO-Clase-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>2,84</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-5,77</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>3,48</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,52</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,09</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-5,77</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>32,58%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-25,76%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8,32%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>40,49%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>27,98%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>8,32%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-25,76%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-2,09; 7,39</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-10,87; -0,35</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-3,94; 5,88</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>-1,41; 8,84</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,57; 7,15</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,94; 5,88</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-10,87; -0,35</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>-19,71; 115,21</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-42,75; -0,01</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-25,99; 51,99</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>-14,1; 139,21</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-23,41; 100,15</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-25,99; 51,99</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-42,75; -0,01</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>3,98</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-2,33</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-2,17</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>0,36</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,65</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,17</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-2,33</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>45,04%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-8,64%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-11,06%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>3,86%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>26,67%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-11,06%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-8,64%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-1,2; 8,83</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-10,09; 4,38</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-8,33; 4,03</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>-5,61; 5,13</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,57; 8,03</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-8,33; 4,03</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-10,09; 4,38</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-13,49; 135,14</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-31,33; 19,79</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-36,23; 26,09</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>-43,47; 83,91</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-29,15; 118,32</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-36,23; 26,09</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-31,33; 19,79</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-2,87</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-5,65</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>-4,62</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-49,05</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-5,65</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,74</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>-26,18%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2,97%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-21,25%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>-24,86%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-84,87%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-21,25%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>2,97%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-9,45; 3,41</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-11,83; 13,73</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-13,85; 2,94</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>-12,11; 3,84</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-80,74; 0,85</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-13,85; 2,94</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-11,83; 13,73</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-66,3; 41,91</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-41,58; 70,46</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-47,75; 13,05</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>-60,59; 24,68</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-96,89; 2,88</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-47,75; 13,05</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-41,58; 70,46</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>2,33</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4,09</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>-0,86</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-4,11</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,09</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>15,7%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>15,13%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,38%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>-4,67%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-25,73%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,38%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>15,13%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-2,48; 7,19</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-4,11; 12,54</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-5,34; 5,79</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>-6,35; 4,93</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-14,9; 3,64</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-5,34; 5,79</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-4,11; 12,54</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>-13,42; 62,39</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-13,15; 56,29</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-20,21; 27,96</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>-30,68; 31,32</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-72,23; 25,98</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-20,21; 27,96</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-13,15; 56,29</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-17,12</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-9,58</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-0,3</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,72</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-9,58</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-17,12</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>3,47%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-48,11%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-33,67%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>-2,18%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-4,16%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-33,67%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-48,11%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>-6,43; 8,03</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-30,54; -4,96</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-17,07; -1,54</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>-6,95; 5,89</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-10,53; 7,8</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-17,07; -1,54</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-30,54; -4,96</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>-27,96; 64,43</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-67,99; -18,08</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-52,88; -6,39</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>-39,13; 58,13</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-47,15; 61,06</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-52,88; -6,39</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-67,99; -18,08</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-5,5</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-19,21</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-12,03</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-2,87</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-4,79</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-12,03</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-19,21</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>-28,53%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-45,68%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-86,16%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>-23,48%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-24,11%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-86,16%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-45,68%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-16,69; 4,36</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-34,77; -1,94</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-35,57; 0,02</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>-12,57; 4,38</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-16,78; 5,49</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-35,57; 0,02</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-34,77; -1,94</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>-57,92; 44,68</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-64,67; -5,33</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>-66,67; 67,82</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-56,48; 50,61</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-64,67; -5,33</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>1,84</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-3,65</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-2,48</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>-1,02</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-10,88</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-2,48</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-3,65</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>14,24%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-13,78%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-11,65%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>-7,32%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-44,87%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-11,65%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-13,78%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-0,56; 4,41</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-7,19; -0,43</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-5,12; 0,1</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>-3,53; 1,46</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-39,5; 1,25</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-5,12; 0,1</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-7,19; -0,43</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>-3,85; 39,45</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-25,49; -1,78</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-23,03; 0,3</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>-22,81; 11,89</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-77,61; 9,88</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-23,03; 0,3</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-25,49; -1,78</t>
         </is>
       </c>
     </row>
